--- a/Excel-XLSX/UN-PHI.xlsx
+++ b/Excel-XLSX/UN-PHI.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>APY9pJ</t>
+    <t>6yWII4</t>
   </si>
   <si>
     <t>1975</t>
@@ -2781,18 +2781,18 @@
     <t>636</t>
   </si>
   <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
     <t>637</t>
   </si>
   <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
     <t>638</t>
   </si>
   <si>
@@ -2838,15 +2838,18 @@
     <t>652</t>
   </si>
   <si>
+    <t>121576</t>
+  </si>
+  <si>
+    <t>166193</t>
+  </si>
+  <si>
+    <t>121002</t>
+  </si>
+  <si>
     <t>653</t>
   </si>
   <si>
-    <t>119062</t>
-  </si>
-  <si>
-    <t>115047</t>
-  </si>
-  <si>
     <t>654</t>
   </si>
   <si>
@@ -2884,9 +2887,6 @@
   </si>
   <si>
     <t>667</t>
-  </si>
-  <si>
-    <t>669</t>
   </si>
 </sst>
 </file>
@@ -3271,7 +3271,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V670"/>
+  <dimension ref="A1:V669"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -45548,10 +45548,10 @@
         <v>32</v>
       </c>
       <c r="N622" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O622" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P622" s="2" t="s">
         <v>34</v>
@@ -45619,7 +45619,7 @@
         <v>34</v>
       </c>
       <c r="O623" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P623" s="2" t="s">
         <v>34</v>
@@ -45687,7 +45687,7 @@
         <v>77</v>
       </c>
       <c r="O624" s="2" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="P624" s="2" t="s">
         <v>34</v>
@@ -45752,7 +45752,7 @@
         <v>32</v>
       </c>
       <c r="N625" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O625" s="2" t="s">
         <v>34</v>
@@ -45891,7 +45891,7 @@
         <v>34</v>
       </c>
       <c r="O627" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P627" s="2" t="s">
         <v>34</v>
@@ -45956,7 +45956,7 @@
         <v>32</v>
       </c>
       <c r="N628" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O628" s="2" t="s">
         <v>111</v>
@@ -46024,10 +46024,10 @@
         <v>32</v>
       </c>
       <c r="N629" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="O629" s="2" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="P629" s="2" t="s">
         <v>34</v>
@@ -46092,10 +46092,10 @@
         <v>32</v>
       </c>
       <c r="N630" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="O630" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="P630" s="2" t="s">
         <v>34</v>
@@ -46160,10 +46160,10 @@
         <v>32</v>
       </c>
       <c r="N631" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="O631" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P631" s="2" t="s">
         <v>34</v>
@@ -46204,16 +46204,16 @@
         <v>905</v>
       </c>
       <c r="F632" s="2" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="G632" s="1" t="s">
-        <v>862</v>
+        <v>477</v>
       </c>
       <c r="H632" s="1" t="s">
-        <v>863</v>
+        <v>478</v>
       </c>
       <c r="I632" s="1" t="s">
-        <v>864</v>
+        <v>479</v>
       </c>
       <c r="J632" s="2" t="s">
         <v>29</v>
@@ -46228,10 +46228,10 @@
         <v>32</v>
       </c>
       <c r="N632" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="O632" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="P632" s="2" t="s">
         <v>34</v>
@@ -46272,16 +46272,16 @@
         <v>905</v>
       </c>
       <c r="F633" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G633" s="1" t="s">
-        <v>477</v>
+        <v>202</v>
       </c>
       <c r="H633" s="1" t="s">
-        <v>478</v>
+        <v>203</v>
       </c>
       <c r="I633" s="1" t="s">
-        <v>479</v>
+        <v>203</v>
       </c>
       <c r="J633" s="2" t="s">
         <v>29</v>
@@ -46296,10 +46296,10 @@
         <v>32</v>
       </c>
       <c r="N633" s="2" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="O633" s="2" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="P633" s="2" t="s">
         <v>34</v>
@@ -46340,16 +46340,16 @@
         <v>905</v>
       </c>
       <c r="F634" s="2" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="G634" s="1" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="H634" s="1" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="I634" s="1" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="J634" s="2" t="s">
         <v>29</v>
@@ -46364,10 +46364,10 @@
         <v>32</v>
       </c>
       <c r="N634" s="2" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="O634" s="2" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="P634" s="2" t="s">
         <v>34</v>
@@ -46408,16 +46408,16 @@
         <v>905</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G635" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H635" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I635" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J635" s="2" t="s">
         <v>29</v>
@@ -46432,10 +46432,10 @@
         <v>32</v>
       </c>
       <c r="N635" s="2" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="O635" s="2" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="P635" s="2" t="s">
         <v>34</v>
@@ -46476,16 +46476,16 @@
         <v>905</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="G636" s="1" t="s">
-        <v>173</v>
+        <v>621</v>
       </c>
       <c r="H636" s="1" t="s">
-        <v>174</v>
+        <v>622</v>
       </c>
       <c r="I636" s="1" t="s">
-        <v>174</v>
+        <v>623</v>
       </c>
       <c r="J636" s="2" t="s">
         <v>29</v>
@@ -46500,10 +46500,10 @@
         <v>32</v>
       </c>
       <c r="N636" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O636" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="P636" s="2" t="s">
         <v>34</v>
@@ -46544,16 +46544,16 @@
         <v>905</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G637" s="1" t="s">
-        <v>621</v>
+        <v>921</v>
       </c>
       <c r="H637" s="1" t="s">
-        <v>622</v>
+        <v>922</v>
       </c>
       <c r="I637" s="1" t="s">
-        <v>623</v>
+        <v>923</v>
       </c>
       <c r="J637" s="2" t="s">
         <v>29</v>
@@ -46571,7 +46571,7 @@
         <v>34</v>
       </c>
       <c r="O637" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="P637" s="2" t="s">
         <v>34</v>
@@ -46606,22 +46606,22 @@
         <v>22</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E638" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F638" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G638" s="1" t="s">
-        <v>922</v>
+        <v>432</v>
       </c>
       <c r="H638" s="1" t="s">
-        <v>923</v>
+        <v>433</v>
       </c>
       <c r="I638" s="1" t="s">
-        <v>924</v>
+        <v>434</v>
       </c>
       <c r="J638" s="2" t="s">
         <v>29</v>
@@ -46636,10 +46636,10 @@
         <v>32</v>
       </c>
       <c r="N638" s="2" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="O638" s="2" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="P638" s="2" t="s">
         <v>34</v>
@@ -46680,16 +46680,16 @@
         <v>905</v>
       </c>
       <c r="F639" s="2" t="s">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="G639" s="1" t="s">
-        <v>432</v>
+        <v>74</v>
       </c>
       <c r="H639" s="1" t="s">
-        <v>433</v>
+        <v>75</v>
       </c>
       <c r="I639" s="1" t="s">
-        <v>434</v>
+        <v>75</v>
       </c>
       <c r="J639" s="2" t="s">
         <v>29</v>
@@ -46704,10 +46704,10 @@
         <v>32</v>
       </c>
       <c r="N639" s="2" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="O639" s="2" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="P639" s="2" t="s">
         <v>34</v>
@@ -46748,16 +46748,16 @@
         <v>905</v>
       </c>
       <c r="F640" s="2" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="G640" s="1" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="H640" s="1" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="I640" s="1" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="J640" s="2" t="s">
         <v>29</v>
@@ -46772,10 +46772,10 @@
         <v>32</v>
       </c>
       <c r="N640" s="2" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="O640" s="2" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="P640" s="2" t="s">
         <v>34</v>
@@ -46816,16 +46816,16 @@
         <v>905</v>
       </c>
       <c r="F641" s="2" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="G641" s="1" t="s">
-        <v>179</v>
+        <v>400</v>
       </c>
       <c r="H641" s="1" t="s">
-        <v>180</v>
+        <v>401</v>
       </c>
       <c r="I641" s="1" t="s">
-        <v>180</v>
+        <v>401</v>
       </c>
       <c r="J641" s="2" t="s">
         <v>29</v>
@@ -46840,10 +46840,10 @@
         <v>32</v>
       </c>
       <c r="N641" s="2" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="O641" s="2" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="P641" s="2" t="s">
         <v>34</v>
@@ -46884,16 +46884,16 @@
         <v>905</v>
       </c>
       <c r="F642" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G642" s="1" t="s">
-        <v>400</v>
+        <v>811</v>
       </c>
       <c r="H642" s="1" t="s">
-        <v>401</v>
+        <v>812</v>
       </c>
       <c r="I642" s="1" t="s">
-        <v>401</v>
+        <v>812</v>
       </c>
       <c r="J642" s="2" t="s">
         <v>29</v>
@@ -46952,16 +46952,16 @@
         <v>905</v>
       </c>
       <c r="F643" s="2" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="G643" s="1" t="s">
-        <v>811</v>
+        <v>209</v>
       </c>
       <c r="H643" s="1" t="s">
-        <v>812</v>
+        <v>210</v>
       </c>
       <c r="I643" s="1" t="s">
-        <v>812</v>
+        <v>211</v>
       </c>
       <c r="J643" s="2" t="s">
         <v>29</v>
@@ -46976,10 +46976,10 @@
         <v>32</v>
       </c>
       <c r="N643" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="O643" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P643" s="2" t="s">
         <v>34</v>
@@ -47020,16 +47020,16 @@
         <v>905</v>
       </c>
       <c r="F644" s="2" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="G644" s="1" t="s">
-        <v>209</v>
+        <v>290</v>
       </c>
       <c r="H644" s="1" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="I644" s="1" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="J644" s="2" t="s">
         <v>29</v>
@@ -47044,10 +47044,10 @@
         <v>32</v>
       </c>
       <c r="N644" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O644" s="2" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="P644" s="2" t="s">
         <v>34</v>
@@ -47088,16 +47088,16 @@
         <v>905</v>
       </c>
       <c r="F645" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G645" s="1" t="s">
-        <v>290</v>
+        <v>712</v>
       </c>
       <c r="H645" s="1" t="s">
-        <v>291</v>
+        <v>713</v>
       </c>
       <c r="I645" s="1" t="s">
-        <v>291</v>
+        <v>713</v>
       </c>
       <c r="J645" s="2" t="s">
         <v>29</v>
@@ -47112,10 +47112,10 @@
         <v>32</v>
       </c>
       <c r="N645" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O645" s="2" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="P645" s="2" t="s">
         <v>34</v>
@@ -47156,16 +47156,16 @@
         <v>905</v>
       </c>
       <c r="F646" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G646" s="1" t="s">
-        <v>712</v>
+        <v>584</v>
       </c>
       <c r="H646" s="1" t="s">
-        <v>713</v>
+        <v>585</v>
       </c>
       <c r="I646" s="1" t="s">
-        <v>713</v>
+        <v>586</v>
       </c>
       <c r="J646" s="2" t="s">
         <v>29</v>
@@ -47180,10 +47180,10 @@
         <v>32</v>
       </c>
       <c r="N646" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O646" s="2" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="P646" s="2" t="s">
         <v>34</v>
@@ -47224,16 +47224,16 @@
         <v>905</v>
       </c>
       <c r="F647" s="2" t="s">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="G647" s="1" t="s">
-        <v>584</v>
+        <v>184</v>
       </c>
       <c r="H647" s="1" t="s">
-        <v>585</v>
+        <v>185</v>
       </c>
       <c r="I647" s="1" t="s">
-        <v>586</v>
+        <v>185</v>
       </c>
       <c r="J647" s="2" t="s">
         <v>29</v>
@@ -47248,10 +47248,10 @@
         <v>32</v>
       </c>
       <c r="N647" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="O647" s="2" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="P647" s="2" t="s">
         <v>34</v>
@@ -47292,16 +47292,16 @@
         <v>905</v>
       </c>
       <c r="F648" s="2" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="G648" s="1" t="s">
-        <v>184</v>
+        <v>763</v>
       </c>
       <c r="H648" s="1" t="s">
-        <v>185</v>
+        <v>764</v>
       </c>
       <c r="I648" s="1" t="s">
-        <v>185</v>
+        <v>765</v>
       </c>
       <c r="J648" s="2" t="s">
         <v>29</v>
@@ -47316,10 +47316,10 @@
         <v>32</v>
       </c>
       <c r="N648" s="2" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="O648" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="P648" s="2" t="s">
         <v>34</v>
@@ -47360,16 +47360,16 @@
         <v>905</v>
       </c>
       <c r="F649" s="2" t="s">
-        <v>288</v>
+        <v>121</v>
       </c>
       <c r="G649" s="1" t="s">
-        <v>763</v>
+        <v>663</v>
       </c>
       <c r="H649" s="1" t="s">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="I649" s="1" t="s">
-        <v>765</v>
+        <v>665</v>
       </c>
       <c r="J649" s="2" t="s">
         <v>29</v>
@@ -47384,10 +47384,10 @@
         <v>32</v>
       </c>
       <c r="N649" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O649" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="P649" s="2" t="s">
         <v>34</v>
@@ -47428,16 +47428,16 @@
         <v>905</v>
       </c>
       <c r="F650" s="2" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="G650" s="1" t="s">
-        <v>663</v>
+        <v>215</v>
       </c>
       <c r="H650" s="1" t="s">
-        <v>664</v>
+        <v>216</v>
       </c>
       <c r="I650" s="1" t="s">
-        <v>665</v>
+        <v>217</v>
       </c>
       <c r="J650" s="2" t="s">
         <v>29</v>
@@ -47452,10 +47452,10 @@
         <v>32</v>
       </c>
       <c r="N650" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="O650" s="2" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="P650" s="2" t="s">
         <v>34</v>
@@ -47496,16 +47496,16 @@
         <v>905</v>
       </c>
       <c r="F651" s="2" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="G651" s="1" t="s">
-        <v>215</v>
+        <v>306</v>
       </c>
       <c r="H651" s="1" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="I651" s="1" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="J651" s="2" t="s">
         <v>29</v>
@@ -47523,7 +47523,7 @@
         <v>65</v>
       </c>
       <c r="O651" s="2" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="P651" s="2" t="s">
         <v>34</v>
@@ -47564,16 +47564,16 @@
         <v>905</v>
       </c>
       <c r="F652" s="2" t="s">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="G652" s="1" t="s">
-        <v>306</v>
+        <v>420</v>
       </c>
       <c r="H652" s="1" t="s">
-        <v>307</v>
+        <v>421</v>
       </c>
       <c r="I652" s="1" t="s">
-        <v>308</v>
+        <v>421</v>
       </c>
       <c r="J652" s="2" t="s">
         <v>29</v>
@@ -47588,10 +47588,10 @@
         <v>32</v>
       </c>
       <c r="N652" s="2" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="O652" s="2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="P652" s="2" t="s">
         <v>34</v>
@@ -47632,16 +47632,16 @@
         <v>905</v>
       </c>
       <c r="F653" s="2" t="s">
-        <v>318</v>
+        <v>29</v>
       </c>
       <c r="G653" s="1" t="s">
-        <v>420</v>
+        <v>30</v>
       </c>
       <c r="H653" s="1" t="s">
-        <v>421</v>
+        <v>31</v>
       </c>
       <c r="I653" s="1" t="s">
-        <v>421</v>
+        <v>32</v>
       </c>
       <c r="J653" s="2" t="s">
         <v>29</v>
@@ -47656,25 +47656,25 @@
         <v>32</v>
       </c>
       <c r="N653" s="2" t="s">
-        <v>254</v>
+        <v>34</v>
       </c>
       <c r="O653" s="2" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="P653" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q653" s="2" t="s">
-        <v>34</v>
+        <v>940</v>
       </c>
       <c r="R653" s="2" t="s">
-        <v>34</v>
+        <v>941</v>
       </c>
       <c r="S653" s="2" t="s">
         <v>34</v>
       </c>
       <c r="T653" s="2" t="s">
-        <v>34</v>
+        <v>942</v>
       </c>
       <c r="U653" s="1" t="s">
         <v>35</v>
@@ -47694,22 +47694,22 @@
         <v>22</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="E654" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F654" s="2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="G654" s="1" t="s">
-        <v>30</v>
+        <v>673</v>
       </c>
       <c r="H654" s="1" t="s">
-        <v>31</v>
+        <v>674</v>
       </c>
       <c r="I654" s="1" t="s">
-        <v>32</v>
+        <v>674</v>
       </c>
       <c r="J654" s="2" t="s">
         <v>29</v>
@@ -47724,25 +47724,25 @@
         <v>32</v>
       </c>
       <c r="N654" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O654" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="P654" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q654" s="2" t="s">
-        <v>941</v>
+        <v>34</v>
       </c>
       <c r="R654" s="2" t="s">
-        <v>942</v>
+        <v>34</v>
       </c>
       <c r="S654" s="2" t="s">
         <v>34</v>
       </c>
       <c r="T654" s="2" t="s">
-        <v>887</v>
+        <v>34</v>
       </c>
       <c r="U654" s="1" t="s">
         <v>35</v>
@@ -47762,22 +47762,22 @@
         <v>22</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E655" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F655" s="2" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="G655" s="1" t="s">
-        <v>673</v>
+        <v>220</v>
       </c>
       <c r="H655" s="1" t="s">
-        <v>674</v>
+        <v>221</v>
       </c>
       <c r="I655" s="1" t="s">
-        <v>674</v>
+        <v>221</v>
       </c>
       <c r="J655" s="2" t="s">
         <v>29</v>
@@ -47792,10 +47792,10 @@
         <v>32</v>
       </c>
       <c r="N655" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O655" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="O655" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="P655" s="2" t="s">
         <v>34</v>
@@ -47830,22 +47830,22 @@
         <v>22</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E656" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F656" s="2" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="G656" s="1" t="s">
-        <v>220</v>
+        <v>596</v>
       </c>
       <c r="H656" s="1" t="s">
-        <v>221</v>
+        <v>597</v>
       </c>
       <c r="I656" s="1" t="s">
-        <v>221</v>
+        <v>597</v>
       </c>
       <c r="J656" s="2" t="s">
         <v>29</v>
@@ -47860,10 +47860,10 @@
         <v>32</v>
       </c>
       <c r="N656" s="2" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="O656" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="P656" s="2" t="s">
         <v>34</v>
@@ -47898,22 +47898,22 @@
         <v>22</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E657" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F657" s="2" t="s">
-        <v>335</v>
+        <v>187</v>
       </c>
       <c r="G657" s="1" t="s">
-        <v>596</v>
+        <v>188</v>
       </c>
       <c r="H657" s="1" t="s">
-        <v>597</v>
+        <v>189</v>
       </c>
       <c r="I657" s="1" t="s">
-        <v>597</v>
+        <v>189</v>
       </c>
       <c r="J657" s="2" t="s">
         <v>29</v>
@@ -47928,10 +47928,10 @@
         <v>32</v>
       </c>
       <c r="N657" s="2" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="O657" s="2" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="P657" s="2" t="s">
         <v>34</v>
@@ -47966,22 +47966,22 @@
         <v>22</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E658" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F658" s="2" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="G658" s="1" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="H658" s="1" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="I658" s="1" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="J658" s="2" t="s">
         <v>29</v>
@@ -47996,10 +47996,10 @@
         <v>32</v>
       </c>
       <c r="N658" s="2" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="O658" s="2" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="P658" s="2" t="s">
         <v>34</v>
@@ -48014,7 +48014,7 @@
         <v>34</v>
       </c>
       <c r="T658" s="2" t="s">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="U658" s="1" t="s">
         <v>35</v>
@@ -48034,22 +48034,22 @@
         <v>22</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E659" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F659" s="2" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="G659" s="1" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="H659" s="1" t="s">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="I659" s="1" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="J659" s="2" t="s">
         <v>29</v>
@@ -48064,10 +48064,10 @@
         <v>32</v>
       </c>
       <c r="N659" s="2" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="O659" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="P659" s="2" t="s">
         <v>34</v>
@@ -48079,10 +48079,10 @@
         <v>34</v>
       </c>
       <c r="S659" s="2" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="T659" s="2" t="s">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="U659" s="1" t="s">
         <v>35</v>
@@ -48102,22 +48102,22 @@
         <v>22</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E660" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F660" s="2" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="G660" s="1" t="s">
-        <v>246</v>
+        <v>314</v>
       </c>
       <c r="H660" s="1" t="s">
-        <v>247</v>
+        <v>315</v>
       </c>
       <c r="I660" s="1" t="s">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="J660" s="2" t="s">
         <v>29</v>
@@ -48132,10 +48132,10 @@
         <v>32</v>
       </c>
       <c r="N660" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O660" s="2" t="s">
-        <v>34</v>
+        <v>362</v>
       </c>
       <c r="P660" s="2" t="s">
         <v>34</v>
@@ -48147,7 +48147,7 @@
         <v>34</v>
       </c>
       <c r="S660" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="T660" s="2" t="s">
         <v>34</v>
@@ -48176,16 +48176,16 @@
         <v>905</v>
       </c>
       <c r="F661" s="2" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="G661" s="1" t="s">
-        <v>314</v>
+        <v>449</v>
       </c>
       <c r="H661" s="1" t="s">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="I661" s="1" t="s">
-        <v>316</v>
+        <v>450</v>
       </c>
       <c r="J661" s="2" t="s">
         <v>29</v>
@@ -48200,10 +48200,10 @@
         <v>32</v>
       </c>
       <c r="N661" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="O661" s="2" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="P661" s="2" t="s">
         <v>34</v>
@@ -48238,22 +48238,22 @@
         <v>22</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E662" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F662" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G662" s="1" t="s">
-        <v>449</v>
+        <v>732</v>
       </c>
       <c r="H662" s="1" t="s">
-        <v>450</v>
+        <v>733</v>
       </c>
       <c r="I662" s="1" t="s">
-        <v>450</v>
+        <v>733</v>
       </c>
       <c r="J662" s="2" t="s">
         <v>29</v>
@@ -48268,10 +48268,10 @@
         <v>32</v>
       </c>
       <c r="N662" s="2" t="s">
-        <v>321</v>
+        <v>48</v>
       </c>
       <c r="O662" s="2" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="P662" s="2" t="s">
         <v>34</v>
@@ -48306,22 +48306,22 @@
         <v>22</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E663" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F663" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="G663" s="1" t="s">
-        <v>732</v>
+        <v>836</v>
       </c>
       <c r="H663" s="1" t="s">
-        <v>733</v>
+        <v>837</v>
       </c>
       <c r="I663" s="1" t="s">
-        <v>733</v>
+        <v>837</v>
       </c>
       <c r="J663" s="2" t="s">
         <v>29</v>
@@ -48336,10 +48336,10 @@
         <v>32</v>
       </c>
       <c r="N663" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O663" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="P663" s="2" t="s">
         <v>34</v>
@@ -48374,22 +48374,22 @@
         <v>22</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E664" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F664" s="2" t="s">
-        <v>369</v>
+        <v>297</v>
       </c>
       <c r="G664" s="1" t="s">
-        <v>836</v>
+        <v>298</v>
       </c>
       <c r="H664" s="1" t="s">
-        <v>837</v>
+        <v>299</v>
       </c>
       <c r="I664" s="1" t="s">
-        <v>837</v>
+        <v>299</v>
       </c>
       <c r="J664" s="2" t="s">
         <v>29</v>
@@ -48404,10 +48404,10 @@
         <v>32</v>
       </c>
       <c r="N664" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O664" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="P664" s="2" t="s">
         <v>34</v>
@@ -48442,22 +48442,22 @@
         <v>22</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E665" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F665" s="2" t="s">
-        <v>297</v>
+        <v>372</v>
       </c>
       <c r="G665" s="1" t="s">
-        <v>298</v>
+        <v>498</v>
       </c>
       <c r="H665" s="1" t="s">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="I665" s="1" t="s">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="J665" s="2" t="s">
         <v>29</v>
@@ -48472,10 +48472,10 @@
         <v>32</v>
       </c>
       <c r="N665" s="2" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="O665" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="P665" s="2" t="s">
         <v>34</v>
@@ -48510,22 +48510,22 @@
         <v>22</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E666" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F666" s="2" t="s">
-        <v>372</v>
+        <v>60</v>
       </c>
       <c r="G666" s="1" t="s">
-        <v>498</v>
+        <v>61</v>
       </c>
       <c r="H666" s="1" t="s">
-        <v>499</v>
+        <v>62</v>
       </c>
       <c r="I666" s="1" t="s">
-        <v>499</v>
+        <v>63</v>
       </c>
       <c r="J666" s="2" t="s">
         <v>29</v>
@@ -48540,7 +48540,7 @@
         <v>32</v>
       </c>
       <c r="N666" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O666" s="2" t="s">
         <v>48</v>
@@ -48578,22 +48578,22 @@
         <v>22</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E667" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F667" s="2" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="G667" s="1" t="s">
-        <v>61</v>
+        <v>843</v>
       </c>
       <c r="H667" s="1" t="s">
-        <v>62</v>
+        <v>844</v>
       </c>
       <c r="I667" s="1" t="s">
-        <v>63</v>
+        <v>844</v>
       </c>
       <c r="J667" s="2" t="s">
         <v>29</v>
@@ -48608,10 +48608,10 @@
         <v>32</v>
       </c>
       <c r="N667" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="O667" s="2" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="P667" s="2" t="s">
         <v>34</v>
@@ -48646,22 +48646,22 @@
         <v>22</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E668" s="2" t="s">
         <v>905</v>
       </c>
       <c r="F668" s="2" t="s">
-        <v>97</v>
+        <v>375</v>
       </c>
       <c r="G668" s="1" t="s">
-        <v>843</v>
+        <v>560</v>
       </c>
       <c r="H668" s="1" t="s">
-        <v>844</v>
+        <v>561</v>
       </c>
       <c r="I668" s="1" t="s">
-        <v>844</v>
+        <v>561</v>
       </c>
       <c r="J668" s="2" t="s">
         <v>29</v>
@@ -48679,7 +48679,7 @@
         <v>34</v>
       </c>
       <c r="O668" s="2" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="P668" s="2" t="s">
         <v>34</v>
@@ -48720,16 +48720,16 @@
         <v>905</v>
       </c>
       <c r="F669" s="2" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="G669" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H669" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="I669" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="J669" s="2" t="s">
         <v>29</v>
@@ -48744,10 +48744,10 @@
         <v>32</v>
       </c>
       <c r="N669" s="2" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="O669" s="2" t="s">
-        <v>52</v>
+        <v>324</v>
       </c>
       <c r="P669" s="2" t="s">
         <v>34</v>
@@ -48768,74 +48768,6 @@
         <v>35</v>
       </c>
       <c r="V669" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B670" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C670" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D670" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="E670" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="F670" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G670" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H670" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I670" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J670" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K670" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L670" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M670" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N670" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O670" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="P670" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q670" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R670" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S670" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T670" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U670" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V670" s="2" t="s">
         <v>34</v>
       </c>
     </row>
